--- a/biology/Botanique/Bolet_de_Corse/Bolet_de_Corse.xlsx
+++ b/biology/Botanique/Bolet_de_Corse/Bolet_de_Corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leccinellum corsicum
-Leccinellum corsicum, le Bolet de Corse, anciennement Leccinum corsicum, est une espèce de champignons basidiomycètes, appartenant à la famille des Boletaceae. Comestible, il pousse en symbiose mycorhizienne exclusivement avec des cistes (Cistus) en Europe méditerranéenne et en Afrique du Nord[1]. 
+Leccinellum corsicum, le Bolet de Corse, anciennement Leccinum corsicum, est une espèce de champignons basidiomycètes, appartenant à la famille des Boletaceae. Comestible, il pousse en symbiose mycorhizienne exclusivement avec des cistes (Cistus) en Europe méditerranéenne et en Afrique du Nord. 
 </t>
         </is>
       </c>
@@ -514,51 +526,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial accepté
-Leccinellum corsicum (Rolland) Bresinsky &amp; Manfr. Binder[2]
-Synonymes
-Boletus corsicus Rolland
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Leccinellum corsicum (Rolland) Bresinsky &amp; Manfr. Binder</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_de_Corse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_de_Corse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus corsicus Rolland
 Suillus corsicus (Rolland) Kuntze
 Xerocomus impolitus var. corsicus (Rolland) R. Heim
 Leccinum corsicum (Rolland) Singer
 Leccinum crocipodium var. corsicum (Rolland) Bertault
-Krombholziella corsica (Rolland) Alessio[2]
-Phylogénie
-Ce champignon a été initialement décrit en 1896 par le mycologue français Léon Louis Rolland comme une espèce du genre Boletus. Andreas Bresinsky et Manfred Binder l'ont ensuite transféré au genre Leccinellum nouvellement circonscrit en 2003[3].
+Krombholziella corsica (Rolland) Alessio</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_de_Corse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_de_Corse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon a été initialement décrit en 1896 par le mycologue français Léon Louis Rolland comme une espèce du genre Boletus. Andreas Bresinsky et Manfred Binder l'ont ensuite transféré au genre Leccinellum nouvellement circonscrit en 2003.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bolet_de_Corse</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_de_Corse</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau jusqu'à 10 cm, d'abord hémisphérique, puis convexe, brun jaunâtre, brun, brun foncé à presque noirâtre, sec, parfois craquelé, mais nettement visqueux par temps humide.  
 Pores concolores aux tubes, parfois teintés de rouille, fonçant jusqu'à quelque peu ochracés lorsqu'ils sont meurtris. Tubes jaune pâle à jaune. 
 Stipe généralement gros, ovoïde, cylindrique ou légèrement en forme de massue, jaune pâle à jaune, se décolorant souvent avec l'âge jusqu'à devenir crème ou blanchâtre, recouvert de granules jaunes à rouille ou brunes. 
-Chair blanchâtre ou jaune pâle, devenant rosâtre ou rougeâtre, puis violacée ou grisâtre, lorsqu'elle est exposée à l'air. Odeur non distinctive. Saveur non distinctive[4].
+Chair blanchâtre ou jaune pâle, devenant rosâtre ou rougeâtre, puis violacée ou grisâtre, lorsqu'elle est exposée à l'air. Odeur non distinctive. Saveur non distinctive.
 </t>
         </is>
       </c>
